--- a/shared/final_spreadsheets/marinegeo_spreadsheet_beach_seines.xlsx
+++ b/shared/final_spreadsheets/marinegeo_spreadsheet_beach_seines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Fishes\fish-seines\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\shared\final_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F594BC6F-17DC-4312-B114-6B3E2422672D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC1D76-1FD4-48A4-BEFA-FC14DC44AA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,7 +1783,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -2399,8 +2399,8 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="50.1" customHeight="1"/>
@@ -2940,16 +2940,16 @@
         <v>97</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="28"/>
     </row>
@@ -2958,15 +2958,17 @@
         <v>97</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="28"/>
+      <c r="E33" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" s="27" customFormat="1" ht="96" customHeight="1">
@@ -2974,17 +2976,15 @@
         <v>97</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E34" s="28"/>
       <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
@@ -3082,16 +3082,16 @@
         <v>98</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" s="5"/>
     </row>
@@ -3100,15 +3100,17 @@
         <v>98</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="5"/>
     </row>
     <row r="43" spans="1:6" s="27" customFormat="1" ht="96" customHeight="1">
@@ -3116,17 +3118,15 @@
         <v>98</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="1:6" s="22" customFormat="1" ht="50.1" customHeight="1">
